--- a/1-labels-gerd/gerd-compilation.xlsx
+++ b/1-labels-gerd/gerd-compilation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerd1\OneDrive\Desktop\data-thesis\1-labels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerd1\OneDrive\Desktop\test\data-thesis\1-labels-gerd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8D742B-55DA-4882-B13E-C32B8257571A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE6439D-4181-4CCB-89AA-350B2D980679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="630" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="1472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="1551">
   <si>
     <t>Filename</t>
   </si>
@@ -4441,6 +4441,243 @@
   </si>
   <si>
     <t>StringSort+SelectionSort.java</t>
+  </si>
+  <si>
+    <t>AmericanFlagSort.java</t>
+  </si>
+  <si>
+    <t>BaseSort.java</t>
+  </si>
+  <si>
+    <t>BeadSort (2).java</t>
+  </si>
+  <si>
+    <t>BeadSort.java</t>
+  </si>
+  <si>
+    <t>bitonic_sort.java</t>
+  </si>
+  <si>
+    <t>bitonic_sort.py</t>
+  </si>
+  <si>
+    <t>BitonicSort (2).java</t>
+  </si>
+  <si>
+    <t>BitonicSort (3).java</t>
+  </si>
+  <si>
+    <t>BitonicSort (3).py</t>
+  </si>
+  <si>
+    <t>BitonicSort (4).java</t>
+  </si>
+  <si>
+    <t>bitonicSort.js</t>
+  </si>
+  <si>
+    <t>bogo_sort (2).py</t>
+  </si>
+  <si>
+    <t>bogo_sort.java</t>
+  </si>
+  <si>
+    <t>Bogo_Sort.py</t>
+  </si>
+  <si>
+    <t>BogoPermutationSort.py</t>
+  </si>
+  <si>
+    <t>BogoSort (2).java</t>
+  </si>
+  <si>
+    <t>bogoSort (2).js</t>
+  </si>
+  <si>
+    <t>bogosort.js</t>
+  </si>
+  <si>
+    <t>BottomUpHeapsort.java</t>
+  </si>
+  <si>
+    <t>BottomUpHeapsortSlowComparisons.java</t>
+  </si>
+  <si>
+    <t>brick_sort.py</t>
+  </si>
+  <si>
+    <t>brickSort.js</t>
+  </si>
+  <si>
+    <t>bucket_sort (2).py</t>
+  </si>
+  <si>
+    <t>bucket_sort (3).py</t>
+  </si>
+  <si>
+    <t>bucket_sort (4).py</t>
+  </si>
+  <si>
+    <t>Bucket_Sort.java</t>
+  </si>
+  <si>
+    <t>BucketSort (2).java</t>
+  </si>
+  <si>
+    <t>BucketSort (7).java</t>
+  </si>
+  <si>
+    <t>BucketSort (8).java</t>
+  </si>
+  <si>
+    <t>BucketSort (9).java</t>
+  </si>
+  <si>
+    <t>BucketSort (10).java</t>
+  </si>
+  <si>
+    <t>bucketSort (11).java</t>
+  </si>
+  <si>
+    <t>BucketSort.js</t>
+  </si>
+  <si>
+    <t>BucketSort.py</t>
+  </si>
+  <si>
+    <t>Challenge3.java</t>
+  </si>
+  <si>
+    <t>CocktailShakerSort (2).java</t>
+  </si>
+  <si>
+    <t>counting_sort (2).py</t>
+  </si>
+  <si>
+    <t>counting_sort (3).py</t>
+  </si>
+  <si>
+    <t>counting_sort (4).py</t>
+  </si>
+  <si>
+    <t>counting_sort (5).py</t>
+  </si>
+  <si>
+    <t>CycleSort (7).java</t>
+  </si>
+  <si>
+    <t>cyclesort (7).py</t>
+  </si>
+  <si>
+    <t>cyclesort (5).py</t>
+  </si>
+  <si>
+    <t>cycleSort.js</t>
+  </si>
+  <si>
+    <t>gnome_sort (2).py</t>
+  </si>
+  <si>
+    <t>FactorialByR.java</t>
+  </si>
+  <si>
+    <t>FatefulSort.java</t>
+  </si>
+  <si>
+    <t>GnomeSort (2).java</t>
+  </si>
+  <si>
+    <t>gnomeSort (2).py</t>
+  </si>
+  <si>
+    <t>GnomeSort (3).java</t>
+  </si>
+  <si>
+    <t>GnomeSort (13).java</t>
+  </si>
+  <si>
+    <t>gnomeSort (14).java</t>
+  </si>
+  <si>
+    <t>GnomeSort (15).java</t>
+  </si>
+  <si>
+    <t>HeapSort (2).java</t>
+  </si>
+  <si>
+    <t>HeapSort (2).js</t>
+  </si>
+  <si>
+    <t>HeapSort (2).py</t>
+  </si>
+  <si>
+    <t>HeapSort (3).java</t>
+  </si>
+  <si>
+    <t>HeapSort (3).js</t>
+  </si>
+  <si>
+    <t>HeapSort (3).py</t>
+  </si>
+  <si>
+    <t>HeapSort (4).java</t>
+  </si>
+  <si>
+    <t>heapSort (4).js</t>
+  </si>
+  <si>
+    <t>IndexMaxPQ.java</t>
+  </si>
+  <si>
+    <t>IntroSort (2).java</t>
+  </si>
+  <si>
+    <t>KahnsTopologicalSort.js</t>
+  </si>
+  <si>
+    <t>LampSort.java</t>
+  </si>
+  <si>
+    <t>MaxHeap.java</t>
+  </si>
+  <si>
+    <t>MiddleShift.js</t>
+  </si>
+  <si>
+    <t>OddEvenSort (2).java</t>
+  </si>
+  <si>
+    <t>OddEvenSort (3).java</t>
+  </si>
+  <si>
+    <t>oddEvenSort (4).java</t>
+  </si>
+  <si>
+    <t>OddEvenSort (5).java</t>
+  </si>
+  <si>
+    <t>OddEvenSort (6).java</t>
+  </si>
+  <si>
+    <t>Pancake Sort (2).py</t>
+  </si>
+  <si>
+    <t>Pancake Sort.py</t>
+  </si>
+  <si>
+    <t>pancake_sort (2).py</t>
+  </si>
+  <si>
+    <t>pancake_sort (3).py</t>
+  </si>
+  <si>
+    <t>pancake_sort (4).py</t>
+  </si>
+  <si>
+    <t>pancake_sort.js</t>
+  </si>
+  <si>
+    <t>pancake_sort.py</t>
   </si>
 </sst>
 </file>
@@ -4758,10 +4995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1501"/>
+  <dimension ref="A1:J1580"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1470" workbookViewId="0">
-      <selection activeCell="A1329" sqref="A1329"/>
+    <sheetView tabSelected="1" topLeftCell="A1494" workbookViewId="0">
+      <selection activeCell="A1502" sqref="A1502:J1580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52798,6 +53035,2534 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1502" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1502" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B1502">
+        <v>0</v>
+      </c>
+      <c r="C1502">
+        <v>0</v>
+      </c>
+      <c r="D1502">
+        <v>0</v>
+      </c>
+      <c r="E1502">
+        <v>0</v>
+      </c>
+      <c r="F1502">
+        <v>0</v>
+      </c>
+      <c r="G1502">
+        <v>0</v>
+      </c>
+      <c r="H1502">
+        <v>0</v>
+      </c>
+      <c r="I1502">
+        <v>0</v>
+      </c>
+      <c r="J1502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1503" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1503">
+        <v>0</v>
+      </c>
+      <c r="C1503">
+        <v>0</v>
+      </c>
+      <c r="D1503">
+        <v>0</v>
+      </c>
+      <c r="E1503">
+        <v>0</v>
+      </c>
+      <c r="F1503">
+        <v>0</v>
+      </c>
+      <c r="G1503">
+        <v>0</v>
+      </c>
+      <c r="H1503">
+        <v>0</v>
+      </c>
+      <c r="I1503">
+        <v>0</v>
+      </c>
+      <c r="J1503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1504" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B1504">
+        <v>0</v>
+      </c>
+      <c r="C1504">
+        <v>0</v>
+      </c>
+      <c r="D1504">
+        <v>0</v>
+      </c>
+      <c r="E1504">
+        <v>0</v>
+      </c>
+      <c r="F1504">
+        <v>0</v>
+      </c>
+      <c r="G1504">
+        <v>0</v>
+      </c>
+      <c r="H1504">
+        <v>0</v>
+      </c>
+      <c r="I1504">
+        <v>0</v>
+      </c>
+      <c r="J1504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1505" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B1505">
+        <v>0</v>
+      </c>
+      <c r="C1505">
+        <v>0</v>
+      </c>
+      <c r="D1505">
+        <v>0</v>
+      </c>
+      <c r="E1505">
+        <v>0</v>
+      </c>
+      <c r="F1505">
+        <v>0</v>
+      </c>
+      <c r="G1505">
+        <v>0</v>
+      </c>
+      <c r="H1505">
+        <v>0</v>
+      </c>
+      <c r="I1505">
+        <v>0</v>
+      </c>
+      <c r="J1505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1506" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B1506">
+        <v>0</v>
+      </c>
+      <c r="C1506">
+        <v>0</v>
+      </c>
+      <c r="D1506">
+        <v>0</v>
+      </c>
+      <c r="E1506">
+        <v>0</v>
+      </c>
+      <c r="F1506">
+        <v>0</v>
+      </c>
+      <c r="G1506">
+        <v>0</v>
+      </c>
+      <c r="H1506">
+        <v>0</v>
+      </c>
+      <c r="I1506">
+        <v>0</v>
+      </c>
+      <c r="J1506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1507" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B1507">
+        <v>0</v>
+      </c>
+      <c r="C1507">
+        <v>0</v>
+      </c>
+      <c r="D1507">
+        <v>0</v>
+      </c>
+      <c r="E1507">
+        <v>0</v>
+      </c>
+      <c r="F1507">
+        <v>0</v>
+      </c>
+      <c r="G1507">
+        <v>0</v>
+      </c>
+      <c r="H1507">
+        <v>0</v>
+      </c>
+      <c r="I1507">
+        <v>0</v>
+      </c>
+      <c r="J1507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1508" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B1508">
+        <v>0</v>
+      </c>
+      <c r="C1508">
+        <v>0</v>
+      </c>
+      <c r="D1508">
+        <v>0</v>
+      </c>
+      <c r="E1508">
+        <v>0</v>
+      </c>
+      <c r="F1508">
+        <v>0</v>
+      </c>
+      <c r="G1508">
+        <v>0</v>
+      </c>
+      <c r="H1508">
+        <v>0</v>
+      </c>
+      <c r="I1508">
+        <v>0</v>
+      </c>
+      <c r="J1508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1509" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B1509">
+        <v>0</v>
+      </c>
+      <c r="C1509">
+        <v>0</v>
+      </c>
+      <c r="D1509">
+        <v>0</v>
+      </c>
+      <c r="E1509">
+        <v>0</v>
+      </c>
+      <c r="F1509">
+        <v>0</v>
+      </c>
+      <c r="G1509">
+        <v>0</v>
+      </c>
+      <c r="H1509">
+        <v>0</v>
+      </c>
+      <c r="I1509">
+        <v>0</v>
+      </c>
+      <c r="J1509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1510" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B1510">
+        <v>0</v>
+      </c>
+      <c r="C1510">
+        <v>0</v>
+      </c>
+      <c r="D1510">
+        <v>0</v>
+      </c>
+      <c r="E1510">
+        <v>0</v>
+      </c>
+      <c r="F1510">
+        <v>0</v>
+      </c>
+      <c r="G1510">
+        <v>0</v>
+      </c>
+      <c r="H1510">
+        <v>0</v>
+      </c>
+      <c r="I1510">
+        <v>0</v>
+      </c>
+      <c r="J1510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1511" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B1511">
+        <v>0</v>
+      </c>
+      <c r="C1511">
+        <v>0</v>
+      </c>
+      <c r="D1511">
+        <v>0</v>
+      </c>
+      <c r="E1511">
+        <v>0</v>
+      </c>
+      <c r="F1511">
+        <v>0</v>
+      </c>
+      <c r="G1511">
+        <v>0</v>
+      </c>
+      <c r="H1511">
+        <v>0</v>
+      </c>
+      <c r="I1511">
+        <v>0</v>
+      </c>
+      <c r="J1511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1512" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B1512">
+        <v>0</v>
+      </c>
+      <c r="C1512">
+        <v>0</v>
+      </c>
+      <c r="D1512">
+        <v>0</v>
+      </c>
+      <c r="E1512">
+        <v>0</v>
+      </c>
+      <c r="F1512">
+        <v>0</v>
+      </c>
+      <c r="G1512">
+        <v>0</v>
+      </c>
+      <c r="H1512">
+        <v>0</v>
+      </c>
+      <c r="I1512">
+        <v>0</v>
+      </c>
+      <c r="J1512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1513" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B1513">
+        <v>0</v>
+      </c>
+      <c r="C1513">
+        <v>0</v>
+      </c>
+      <c r="D1513">
+        <v>0</v>
+      </c>
+      <c r="E1513">
+        <v>0</v>
+      </c>
+      <c r="F1513">
+        <v>0</v>
+      </c>
+      <c r="G1513">
+        <v>0</v>
+      </c>
+      <c r="H1513">
+        <v>0</v>
+      </c>
+      <c r="I1513">
+        <v>0</v>
+      </c>
+      <c r="J1513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1514" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B1514">
+        <v>0</v>
+      </c>
+      <c r="C1514">
+        <v>0</v>
+      </c>
+      <c r="D1514">
+        <v>0</v>
+      </c>
+      <c r="E1514">
+        <v>0</v>
+      </c>
+      <c r="F1514">
+        <v>0</v>
+      </c>
+      <c r="G1514">
+        <v>0</v>
+      </c>
+      <c r="H1514">
+        <v>0</v>
+      </c>
+      <c r="I1514">
+        <v>0</v>
+      </c>
+      <c r="J1514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1515" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B1515">
+        <v>0</v>
+      </c>
+      <c r="C1515">
+        <v>0</v>
+      </c>
+      <c r="D1515">
+        <v>0</v>
+      </c>
+      <c r="E1515">
+        <v>0</v>
+      </c>
+      <c r="F1515">
+        <v>0</v>
+      </c>
+      <c r="G1515">
+        <v>0</v>
+      </c>
+      <c r="H1515">
+        <v>0</v>
+      </c>
+      <c r="I1515">
+        <v>0</v>
+      </c>
+      <c r="J1515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1516" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B1516">
+        <v>0</v>
+      </c>
+      <c r="C1516">
+        <v>0</v>
+      </c>
+      <c r="D1516">
+        <v>0</v>
+      </c>
+      <c r="E1516">
+        <v>0</v>
+      </c>
+      <c r="F1516">
+        <v>0</v>
+      </c>
+      <c r="G1516">
+        <v>0</v>
+      </c>
+      <c r="H1516">
+        <v>0</v>
+      </c>
+      <c r="I1516">
+        <v>0</v>
+      </c>
+      <c r="J1516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1517" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B1517">
+        <v>0</v>
+      </c>
+      <c r="C1517">
+        <v>0</v>
+      </c>
+      <c r="D1517">
+        <v>0</v>
+      </c>
+      <c r="E1517">
+        <v>0</v>
+      </c>
+      <c r="F1517">
+        <v>0</v>
+      </c>
+      <c r="G1517">
+        <v>0</v>
+      </c>
+      <c r="H1517">
+        <v>0</v>
+      </c>
+      <c r="I1517">
+        <v>0</v>
+      </c>
+      <c r="J1517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1518" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B1518">
+        <v>0</v>
+      </c>
+      <c r="C1518">
+        <v>0</v>
+      </c>
+      <c r="D1518">
+        <v>0</v>
+      </c>
+      <c r="E1518">
+        <v>0</v>
+      </c>
+      <c r="F1518">
+        <v>0</v>
+      </c>
+      <c r="G1518">
+        <v>0</v>
+      </c>
+      <c r="H1518">
+        <v>0</v>
+      </c>
+      <c r="I1518">
+        <v>0</v>
+      </c>
+      <c r="J1518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1519" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B1519">
+        <v>0</v>
+      </c>
+      <c r="C1519">
+        <v>0</v>
+      </c>
+      <c r="D1519">
+        <v>0</v>
+      </c>
+      <c r="E1519">
+        <v>0</v>
+      </c>
+      <c r="F1519">
+        <v>0</v>
+      </c>
+      <c r="G1519">
+        <v>0</v>
+      </c>
+      <c r="H1519">
+        <v>0</v>
+      </c>
+      <c r="I1519">
+        <v>0</v>
+      </c>
+      <c r="J1519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1520" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B1520">
+        <v>0</v>
+      </c>
+      <c r="C1520">
+        <v>0</v>
+      </c>
+      <c r="D1520">
+        <v>0</v>
+      </c>
+      <c r="E1520">
+        <v>0</v>
+      </c>
+      <c r="F1520">
+        <v>0</v>
+      </c>
+      <c r="G1520">
+        <v>0</v>
+      </c>
+      <c r="H1520">
+        <v>0</v>
+      </c>
+      <c r="I1520">
+        <v>0</v>
+      </c>
+      <c r="J1520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1521" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B1521">
+        <v>0</v>
+      </c>
+      <c r="C1521">
+        <v>0</v>
+      </c>
+      <c r="D1521">
+        <v>0</v>
+      </c>
+      <c r="E1521">
+        <v>0</v>
+      </c>
+      <c r="F1521">
+        <v>0</v>
+      </c>
+      <c r="G1521">
+        <v>0</v>
+      </c>
+      <c r="H1521">
+        <v>0</v>
+      </c>
+      <c r="I1521">
+        <v>0</v>
+      </c>
+      <c r="J1521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1522" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B1522">
+        <v>0</v>
+      </c>
+      <c r="C1522">
+        <v>0</v>
+      </c>
+      <c r="D1522">
+        <v>0</v>
+      </c>
+      <c r="E1522">
+        <v>0</v>
+      </c>
+      <c r="F1522">
+        <v>0</v>
+      </c>
+      <c r="G1522">
+        <v>0</v>
+      </c>
+      <c r="H1522">
+        <v>0</v>
+      </c>
+      <c r="I1522">
+        <v>0</v>
+      </c>
+      <c r="J1522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1523" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B1523">
+        <v>0</v>
+      </c>
+      <c r="C1523">
+        <v>0</v>
+      </c>
+      <c r="D1523">
+        <v>0</v>
+      </c>
+      <c r="E1523">
+        <v>0</v>
+      </c>
+      <c r="F1523">
+        <v>0</v>
+      </c>
+      <c r="G1523">
+        <v>0</v>
+      </c>
+      <c r="H1523">
+        <v>0</v>
+      </c>
+      <c r="I1523">
+        <v>0</v>
+      </c>
+      <c r="J1523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1524" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B1524">
+        <v>0</v>
+      </c>
+      <c r="C1524">
+        <v>0</v>
+      </c>
+      <c r="D1524">
+        <v>0</v>
+      </c>
+      <c r="E1524">
+        <v>0</v>
+      </c>
+      <c r="F1524">
+        <v>0</v>
+      </c>
+      <c r="G1524">
+        <v>0</v>
+      </c>
+      <c r="H1524">
+        <v>0</v>
+      </c>
+      <c r="I1524">
+        <v>0</v>
+      </c>
+      <c r="J1524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1525" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B1525">
+        <v>0</v>
+      </c>
+      <c r="C1525">
+        <v>0</v>
+      </c>
+      <c r="D1525">
+        <v>0</v>
+      </c>
+      <c r="E1525">
+        <v>1</v>
+      </c>
+      <c r="F1525">
+        <v>0</v>
+      </c>
+      <c r="G1525">
+        <v>0</v>
+      </c>
+      <c r="H1525">
+        <v>0</v>
+      </c>
+      <c r="I1525">
+        <v>0</v>
+      </c>
+      <c r="J1525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1526" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B1526">
+        <v>0</v>
+      </c>
+      <c r="C1526">
+        <v>0</v>
+      </c>
+      <c r="D1526">
+        <v>0</v>
+      </c>
+      <c r="E1526">
+        <v>1</v>
+      </c>
+      <c r="F1526">
+        <v>0</v>
+      </c>
+      <c r="G1526">
+        <v>0</v>
+      </c>
+      <c r="H1526">
+        <v>0</v>
+      </c>
+      <c r="I1526">
+        <v>0</v>
+      </c>
+      <c r="J1526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1527" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B1527">
+        <v>0</v>
+      </c>
+      <c r="C1527">
+        <v>0</v>
+      </c>
+      <c r="D1527">
+        <v>0</v>
+      </c>
+      <c r="E1527">
+        <v>0</v>
+      </c>
+      <c r="F1527">
+        <v>0</v>
+      </c>
+      <c r="G1527">
+        <v>0</v>
+      </c>
+      <c r="H1527">
+        <v>0</v>
+      </c>
+      <c r="I1527">
+        <v>0</v>
+      </c>
+      <c r="J1527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1528" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B1528">
+        <v>0</v>
+      </c>
+      <c r="C1528">
+        <v>0</v>
+      </c>
+      <c r="D1528">
+        <v>0</v>
+      </c>
+      <c r="E1528">
+        <v>0</v>
+      </c>
+      <c r="F1528">
+        <v>0</v>
+      </c>
+      <c r="G1528">
+        <v>0</v>
+      </c>
+      <c r="H1528">
+        <v>0</v>
+      </c>
+      <c r="I1528">
+        <v>0</v>
+      </c>
+      <c r="J1528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1529" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B1529">
+        <v>0</v>
+      </c>
+      <c r="C1529">
+        <v>0</v>
+      </c>
+      <c r="D1529">
+        <v>0</v>
+      </c>
+      <c r="E1529">
+        <v>0</v>
+      </c>
+      <c r="F1529">
+        <v>0</v>
+      </c>
+      <c r="G1529">
+        <v>0</v>
+      </c>
+      <c r="H1529">
+        <v>0</v>
+      </c>
+      <c r="I1529">
+        <v>0</v>
+      </c>
+      <c r="J1529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1530" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B1530">
+        <v>0</v>
+      </c>
+      <c r="C1530">
+        <v>0</v>
+      </c>
+      <c r="D1530">
+        <v>0</v>
+      </c>
+      <c r="E1530">
+        <v>1</v>
+      </c>
+      <c r="F1530">
+        <v>0</v>
+      </c>
+      <c r="G1530">
+        <v>0</v>
+      </c>
+      <c r="H1530">
+        <v>0</v>
+      </c>
+      <c r="I1530">
+        <v>0</v>
+      </c>
+      <c r="J1530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1531" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B1531">
+        <v>0</v>
+      </c>
+      <c r="C1531">
+        <v>0</v>
+      </c>
+      <c r="D1531">
+        <v>0</v>
+      </c>
+      <c r="E1531">
+        <v>1</v>
+      </c>
+      <c r="F1531">
+        <v>0</v>
+      </c>
+      <c r="G1531">
+        <v>0</v>
+      </c>
+      <c r="H1531">
+        <v>0</v>
+      </c>
+      <c r="I1531">
+        <v>0</v>
+      </c>
+      <c r="J1531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1532" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B1532">
+        <v>0</v>
+      </c>
+      <c r="C1532">
+        <v>0</v>
+      </c>
+      <c r="D1532">
+        <v>0</v>
+      </c>
+      <c r="E1532">
+        <v>0</v>
+      </c>
+      <c r="F1532">
+        <v>0</v>
+      </c>
+      <c r="G1532">
+        <v>0</v>
+      </c>
+      <c r="H1532">
+        <v>0</v>
+      </c>
+      <c r="I1532">
+        <v>0</v>
+      </c>
+      <c r="J1532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1533" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B1533">
+        <v>0</v>
+      </c>
+      <c r="C1533">
+        <v>0</v>
+      </c>
+      <c r="D1533">
+        <v>0</v>
+      </c>
+      <c r="E1533">
+        <v>0</v>
+      </c>
+      <c r="F1533">
+        <v>0</v>
+      </c>
+      <c r="G1533">
+        <v>0</v>
+      </c>
+      <c r="H1533">
+        <v>0</v>
+      </c>
+      <c r="I1533">
+        <v>0</v>
+      </c>
+      <c r="J1533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1534" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B1534">
+        <v>0</v>
+      </c>
+      <c r="C1534">
+        <v>0</v>
+      </c>
+      <c r="D1534">
+        <v>0</v>
+      </c>
+      <c r="E1534">
+        <v>1</v>
+      </c>
+      <c r="F1534">
+        <v>0</v>
+      </c>
+      <c r="G1534">
+        <v>0</v>
+      </c>
+      <c r="H1534">
+        <v>0</v>
+      </c>
+      <c r="I1534">
+        <v>0</v>
+      </c>
+      <c r="J1534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1535" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B1535">
+        <v>0</v>
+      </c>
+      <c r="C1535">
+        <v>0</v>
+      </c>
+      <c r="D1535">
+        <v>0</v>
+      </c>
+      <c r="E1535">
+        <v>1</v>
+      </c>
+      <c r="F1535">
+        <v>0</v>
+      </c>
+      <c r="G1535">
+        <v>0</v>
+      </c>
+      <c r="H1535">
+        <v>0</v>
+      </c>
+      <c r="I1535">
+        <v>0</v>
+      </c>
+      <c r="J1535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1536" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B1536">
+        <v>0</v>
+      </c>
+      <c r="C1536">
+        <v>0</v>
+      </c>
+      <c r="D1536">
+        <v>0</v>
+      </c>
+      <c r="E1536">
+        <v>0</v>
+      </c>
+      <c r="F1536">
+        <v>0</v>
+      </c>
+      <c r="G1536">
+        <v>0</v>
+      </c>
+      <c r="H1536">
+        <v>0</v>
+      </c>
+      <c r="I1536">
+        <v>0</v>
+      </c>
+      <c r="J1536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1537" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B1537">
+        <v>0</v>
+      </c>
+      <c r="C1537">
+        <v>0</v>
+      </c>
+      <c r="D1537">
+        <v>0</v>
+      </c>
+      <c r="E1537">
+        <v>0</v>
+      </c>
+      <c r="F1537">
+        <v>0</v>
+      </c>
+      <c r="G1537">
+        <v>0</v>
+      </c>
+      <c r="H1537">
+        <v>0</v>
+      </c>
+      <c r="I1537">
+        <v>0</v>
+      </c>
+      <c r="J1537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1538" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B1538">
+        <v>0</v>
+      </c>
+      <c r="C1538">
+        <v>0</v>
+      </c>
+      <c r="D1538">
+        <v>0</v>
+      </c>
+      <c r="E1538">
+        <v>0</v>
+      </c>
+      <c r="F1538">
+        <v>0</v>
+      </c>
+      <c r="G1538">
+        <v>0</v>
+      </c>
+      <c r="H1538">
+        <v>0</v>
+      </c>
+      <c r="I1538">
+        <v>0</v>
+      </c>
+      <c r="J1538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1539" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B1539">
+        <v>0</v>
+      </c>
+      <c r="C1539">
+        <v>0</v>
+      </c>
+      <c r="D1539">
+        <v>0</v>
+      </c>
+      <c r="E1539">
+        <v>0</v>
+      </c>
+      <c r="F1539">
+        <v>0</v>
+      </c>
+      <c r="G1539">
+        <v>0</v>
+      </c>
+      <c r="H1539">
+        <v>0</v>
+      </c>
+      <c r="I1539">
+        <v>0</v>
+      </c>
+      <c r="J1539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1540" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B1540">
+        <v>0</v>
+      </c>
+      <c r="C1540">
+        <v>0</v>
+      </c>
+      <c r="D1540">
+        <v>0</v>
+      </c>
+      <c r="E1540">
+        <v>0</v>
+      </c>
+      <c r="F1540">
+        <v>0</v>
+      </c>
+      <c r="G1540">
+        <v>0</v>
+      </c>
+      <c r="H1540">
+        <v>0</v>
+      </c>
+      <c r="I1540">
+        <v>0</v>
+      </c>
+      <c r="J1540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1541" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B1541">
+        <v>0</v>
+      </c>
+      <c r="C1541">
+        <v>0</v>
+      </c>
+      <c r="D1541">
+        <v>0</v>
+      </c>
+      <c r="E1541">
+        <v>0</v>
+      </c>
+      <c r="F1541">
+        <v>0</v>
+      </c>
+      <c r="G1541">
+        <v>0</v>
+      </c>
+      <c r="H1541">
+        <v>0</v>
+      </c>
+      <c r="I1541">
+        <v>0</v>
+      </c>
+      <c r="J1541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1542" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B1542">
+        <v>0</v>
+      </c>
+      <c r="C1542">
+        <v>0</v>
+      </c>
+      <c r="D1542">
+        <v>0</v>
+      </c>
+      <c r="E1542">
+        <v>0</v>
+      </c>
+      <c r="F1542">
+        <v>0</v>
+      </c>
+      <c r="G1542">
+        <v>0</v>
+      </c>
+      <c r="H1542">
+        <v>0</v>
+      </c>
+      <c r="I1542">
+        <v>0</v>
+      </c>
+      <c r="J1542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1543" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B1543">
+        <v>0</v>
+      </c>
+      <c r="C1543">
+        <v>0</v>
+      </c>
+      <c r="D1543">
+        <v>0</v>
+      </c>
+      <c r="E1543">
+        <v>0</v>
+      </c>
+      <c r="F1543">
+        <v>0</v>
+      </c>
+      <c r="G1543">
+        <v>0</v>
+      </c>
+      <c r="H1543">
+        <v>0</v>
+      </c>
+      <c r="I1543">
+        <v>0</v>
+      </c>
+      <c r="J1543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1544" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B1544">
+        <v>0</v>
+      </c>
+      <c r="C1544">
+        <v>0</v>
+      </c>
+      <c r="D1544">
+        <v>0</v>
+      </c>
+      <c r="E1544">
+        <v>0</v>
+      </c>
+      <c r="F1544">
+        <v>0</v>
+      </c>
+      <c r="G1544">
+        <v>0</v>
+      </c>
+      <c r="H1544">
+        <v>0</v>
+      </c>
+      <c r="I1544">
+        <v>0</v>
+      </c>
+      <c r="J1544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1545" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B1545">
+        <v>0</v>
+      </c>
+      <c r="C1545">
+        <v>0</v>
+      </c>
+      <c r="D1545">
+        <v>0</v>
+      </c>
+      <c r="E1545">
+        <v>0</v>
+      </c>
+      <c r="F1545">
+        <v>0</v>
+      </c>
+      <c r="G1545">
+        <v>0</v>
+      </c>
+      <c r="H1545">
+        <v>0</v>
+      </c>
+      <c r="I1545">
+        <v>0</v>
+      </c>
+      <c r="J1545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1546" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B1546">
+        <v>0</v>
+      </c>
+      <c r="C1546">
+        <v>0</v>
+      </c>
+      <c r="D1546">
+        <v>0</v>
+      </c>
+      <c r="E1546">
+        <v>0</v>
+      </c>
+      <c r="F1546">
+        <v>0</v>
+      </c>
+      <c r="G1546">
+        <v>0</v>
+      </c>
+      <c r="H1546">
+        <v>0</v>
+      </c>
+      <c r="I1546">
+        <v>0</v>
+      </c>
+      <c r="J1546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1547" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B1547">
+        <v>0</v>
+      </c>
+      <c r="C1547">
+        <v>0</v>
+      </c>
+      <c r="D1547">
+        <v>0</v>
+      </c>
+      <c r="E1547">
+        <v>0</v>
+      </c>
+      <c r="F1547">
+        <v>0</v>
+      </c>
+      <c r="G1547">
+        <v>0</v>
+      </c>
+      <c r="H1547">
+        <v>0</v>
+      </c>
+      <c r="I1547">
+        <v>0</v>
+      </c>
+      <c r="J1547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1548" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B1548">
+        <v>0</v>
+      </c>
+      <c r="C1548">
+        <v>0</v>
+      </c>
+      <c r="D1548">
+        <v>0</v>
+      </c>
+      <c r="E1548">
+        <v>0</v>
+      </c>
+      <c r="F1548">
+        <v>0</v>
+      </c>
+      <c r="G1548">
+        <v>0</v>
+      </c>
+      <c r="H1548">
+        <v>0</v>
+      </c>
+      <c r="I1548">
+        <v>0</v>
+      </c>
+      <c r="J1548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1549" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B1549">
+        <v>0</v>
+      </c>
+      <c r="C1549">
+        <v>0</v>
+      </c>
+      <c r="D1549">
+        <v>0</v>
+      </c>
+      <c r="E1549">
+        <v>0</v>
+      </c>
+      <c r="F1549">
+        <v>0</v>
+      </c>
+      <c r="G1549">
+        <v>0</v>
+      </c>
+      <c r="H1549">
+        <v>0</v>
+      </c>
+      <c r="I1549">
+        <v>0</v>
+      </c>
+      <c r="J1549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1550" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B1550">
+        <v>0</v>
+      </c>
+      <c r="C1550">
+        <v>0</v>
+      </c>
+      <c r="D1550">
+        <v>0</v>
+      </c>
+      <c r="E1550">
+        <v>0</v>
+      </c>
+      <c r="F1550">
+        <v>0</v>
+      </c>
+      <c r="G1550">
+        <v>0</v>
+      </c>
+      <c r="H1550">
+        <v>0</v>
+      </c>
+      <c r="I1550">
+        <v>0</v>
+      </c>
+      <c r="J1550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1551" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B1551">
+        <v>0</v>
+      </c>
+      <c r="C1551">
+        <v>0</v>
+      </c>
+      <c r="D1551">
+        <v>0</v>
+      </c>
+      <c r="E1551">
+        <v>0</v>
+      </c>
+      <c r="F1551">
+        <v>0</v>
+      </c>
+      <c r="G1551">
+        <v>0</v>
+      </c>
+      <c r="H1551">
+        <v>0</v>
+      </c>
+      <c r="I1551">
+        <v>0</v>
+      </c>
+      <c r="J1551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1552" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B1552">
+        <v>0</v>
+      </c>
+      <c r="C1552">
+        <v>0</v>
+      </c>
+      <c r="D1552">
+        <v>0</v>
+      </c>
+      <c r="E1552">
+        <v>0</v>
+      </c>
+      <c r="F1552">
+        <v>0</v>
+      </c>
+      <c r="G1552">
+        <v>0</v>
+      </c>
+      <c r="H1552">
+        <v>0</v>
+      </c>
+      <c r="I1552">
+        <v>0</v>
+      </c>
+      <c r="J1552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1553" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B1553">
+        <v>0</v>
+      </c>
+      <c r="C1553">
+        <v>0</v>
+      </c>
+      <c r="D1553">
+        <v>0</v>
+      </c>
+      <c r="E1553">
+        <v>0</v>
+      </c>
+      <c r="F1553">
+        <v>0</v>
+      </c>
+      <c r="G1553">
+        <v>0</v>
+      </c>
+      <c r="H1553">
+        <v>0</v>
+      </c>
+      <c r="I1553">
+        <v>0</v>
+      </c>
+      <c r="J1553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1554" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B1554">
+        <v>0</v>
+      </c>
+      <c r="C1554">
+        <v>0</v>
+      </c>
+      <c r="D1554">
+        <v>0</v>
+      </c>
+      <c r="E1554">
+        <v>0</v>
+      </c>
+      <c r="F1554">
+        <v>0</v>
+      </c>
+      <c r="G1554">
+        <v>0</v>
+      </c>
+      <c r="H1554">
+        <v>0</v>
+      </c>
+      <c r="I1554">
+        <v>0</v>
+      </c>
+      <c r="J1554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1555" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B1555">
+        <v>0</v>
+      </c>
+      <c r="C1555">
+        <v>0</v>
+      </c>
+      <c r="D1555">
+        <v>0</v>
+      </c>
+      <c r="E1555">
+        <v>0</v>
+      </c>
+      <c r="F1555">
+        <v>0</v>
+      </c>
+      <c r="G1555">
+        <v>0</v>
+      </c>
+      <c r="H1555">
+        <v>0</v>
+      </c>
+      <c r="I1555">
+        <v>0</v>
+      </c>
+      <c r="J1555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1556" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B1556">
+        <v>0</v>
+      </c>
+      <c r="C1556">
+        <v>0</v>
+      </c>
+      <c r="D1556">
+        <v>0</v>
+      </c>
+      <c r="E1556">
+        <v>0</v>
+      </c>
+      <c r="F1556">
+        <v>0</v>
+      </c>
+      <c r="G1556">
+        <v>0</v>
+      </c>
+      <c r="H1556">
+        <v>0</v>
+      </c>
+      <c r="I1556">
+        <v>0</v>
+      </c>
+      <c r="J1556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1557" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B1557">
+        <v>0</v>
+      </c>
+      <c r="C1557">
+        <v>0</v>
+      </c>
+      <c r="D1557">
+        <v>0</v>
+      </c>
+      <c r="E1557">
+        <v>0</v>
+      </c>
+      <c r="F1557">
+        <v>0</v>
+      </c>
+      <c r="G1557">
+        <v>0</v>
+      </c>
+      <c r="H1557">
+        <v>0</v>
+      </c>
+      <c r="I1557">
+        <v>0</v>
+      </c>
+      <c r="J1557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1558" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B1558">
+        <v>0</v>
+      </c>
+      <c r="C1558">
+        <v>0</v>
+      </c>
+      <c r="D1558">
+        <v>0</v>
+      </c>
+      <c r="E1558">
+        <v>0</v>
+      </c>
+      <c r="F1558">
+        <v>0</v>
+      </c>
+      <c r="G1558">
+        <v>0</v>
+      </c>
+      <c r="H1558">
+        <v>0</v>
+      </c>
+      <c r="I1558">
+        <v>0</v>
+      </c>
+      <c r="J1558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1559" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B1559">
+        <v>0</v>
+      </c>
+      <c r="C1559">
+        <v>0</v>
+      </c>
+      <c r="D1559">
+        <v>0</v>
+      </c>
+      <c r="E1559">
+        <v>0</v>
+      </c>
+      <c r="F1559">
+        <v>0</v>
+      </c>
+      <c r="G1559">
+        <v>0</v>
+      </c>
+      <c r="H1559">
+        <v>0</v>
+      </c>
+      <c r="I1559">
+        <v>0</v>
+      </c>
+      <c r="J1559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1560" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B1560">
+        <v>0</v>
+      </c>
+      <c r="C1560">
+        <v>0</v>
+      </c>
+      <c r="D1560">
+        <v>0</v>
+      </c>
+      <c r="E1560">
+        <v>0</v>
+      </c>
+      <c r="F1560">
+        <v>0</v>
+      </c>
+      <c r="G1560">
+        <v>0</v>
+      </c>
+      <c r="H1560">
+        <v>0</v>
+      </c>
+      <c r="I1560">
+        <v>0</v>
+      </c>
+      <c r="J1560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1561" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B1561">
+        <v>0</v>
+      </c>
+      <c r="C1561">
+        <v>0</v>
+      </c>
+      <c r="D1561">
+        <v>0</v>
+      </c>
+      <c r="E1561">
+        <v>0</v>
+      </c>
+      <c r="F1561">
+        <v>0</v>
+      </c>
+      <c r="G1561">
+        <v>0</v>
+      </c>
+      <c r="H1561">
+        <v>0</v>
+      </c>
+      <c r="I1561">
+        <v>0</v>
+      </c>
+      <c r="J1561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1562" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B1562">
+        <v>0</v>
+      </c>
+      <c r="C1562">
+        <v>0</v>
+      </c>
+      <c r="D1562">
+        <v>0</v>
+      </c>
+      <c r="E1562">
+        <v>0</v>
+      </c>
+      <c r="F1562">
+        <v>0</v>
+      </c>
+      <c r="G1562">
+        <v>0</v>
+      </c>
+      <c r="H1562">
+        <v>0</v>
+      </c>
+      <c r="I1562">
+        <v>0</v>
+      </c>
+      <c r="J1562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1563" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B1563">
+        <v>0</v>
+      </c>
+      <c r="C1563">
+        <v>0</v>
+      </c>
+      <c r="D1563">
+        <v>0</v>
+      </c>
+      <c r="E1563">
+        <v>0</v>
+      </c>
+      <c r="F1563">
+        <v>0</v>
+      </c>
+      <c r="G1563">
+        <v>0</v>
+      </c>
+      <c r="H1563">
+        <v>0</v>
+      </c>
+      <c r="I1563">
+        <v>0</v>
+      </c>
+      <c r="J1563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1564" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B1564">
+        <v>0</v>
+      </c>
+      <c r="C1564">
+        <v>0</v>
+      </c>
+      <c r="D1564">
+        <v>0</v>
+      </c>
+      <c r="E1564">
+        <v>0</v>
+      </c>
+      <c r="F1564">
+        <v>0</v>
+      </c>
+      <c r="G1564">
+        <v>0</v>
+      </c>
+      <c r="H1564">
+        <v>0</v>
+      </c>
+      <c r="I1564">
+        <v>0</v>
+      </c>
+      <c r="J1564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1565" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B1565">
+        <v>0</v>
+      </c>
+      <c r="C1565">
+        <v>0</v>
+      </c>
+      <c r="D1565">
+        <v>0</v>
+      </c>
+      <c r="E1565">
+        <v>0</v>
+      </c>
+      <c r="F1565">
+        <v>0</v>
+      </c>
+      <c r="G1565">
+        <v>0</v>
+      </c>
+      <c r="H1565">
+        <v>0</v>
+      </c>
+      <c r="I1565">
+        <v>0</v>
+      </c>
+      <c r="J1565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1566" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B1566">
+        <v>0</v>
+      </c>
+      <c r="C1566">
+        <v>0</v>
+      </c>
+      <c r="D1566">
+        <v>0</v>
+      </c>
+      <c r="E1566">
+        <v>0</v>
+      </c>
+      <c r="F1566">
+        <v>0</v>
+      </c>
+      <c r="G1566">
+        <v>0</v>
+      </c>
+      <c r="H1566">
+        <v>0</v>
+      </c>
+      <c r="I1566">
+        <v>0</v>
+      </c>
+      <c r="J1566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1567" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B1567">
+        <v>0</v>
+      </c>
+      <c r="C1567">
+        <v>0</v>
+      </c>
+      <c r="D1567">
+        <v>0</v>
+      </c>
+      <c r="E1567">
+        <v>0</v>
+      </c>
+      <c r="F1567">
+        <v>0</v>
+      </c>
+      <c r="G1567">
+        <v>0</v>
+      </c>
+      <c r="H1567">
+        <v>0</v>
+      </c>
+      <c r="I1567">
+        <v>0</v>
+      </c>
+      <c r="J1567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1568" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B1568">
+        <v>0</v>
+      </c>
+      <c r="C1568">
+        <v>0</v>
+      </c>
+      <c r="D1568">
+        <v>0</v>
+      </c>
+      <c r="E1568">
+        <v>0</v>
+      </c>
+      <c r="F1568">
+        <v>0</v>
+      </c>
+      <c r="G1568">
+        <v>0</v>
+      </c>
+      <c r="H1568">
+        <v>0</v>
+      </c>
+      <c r="I1568">
+        <v>0</v>
+      </c>
+      <c r="J1568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1569" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B1569">
+        <v>0</v>
+      </c>
+      <c r="C1569">
+        <v>0</v>
+      </c>
+      <c r="D1569">
+        <v>0</v>
+      </c>
+      <c r="E1569">
+        <v>0</v>
+      </c>
+      <c r="F1569">
+        <v>0</v>
+      </c>
+      <c r="G1569">
+        <v>0</v>
+      </c>
+      <c r="H1569">
+        <v>0</v>
+      </c>
+      <c r="I1569">
+        <v>0</v>
+      </c>
+      <c r="J1569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1570" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B1570">
+        <v>0</v>
+      </c>
+      <c r="C1570">
+        <v>0</v>
+      </c>
+      <c r="D1570">
+        <v>0</v>
+      </c>
+      <c r="E1570">
+        <v>0</v>
+      </c>
+      <c r="F1570">
+        <v>0</v>
+      </c>
+      <c r="G1570">
+        <v>0</v>
+      </c>
+      <c r="H1570">
+        <v>0</v>
+      </c>
+      <c r="I1570">
+        <v>0</v>
+      </c>
+      <c r="J1570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1571" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B1571">
+        <v>0</v>
+      </c>
+      <c r="C1571">
+        <v>0</v>
+      </c>
+      <c r="D1571">
+        <v>0</v>
+      </c>
+      <c r="E1571">
+        <v>0</v>
+      </c>
+      <c r="F1571">
+        <v>0</v>
+      </c>
+      <c r="G1571">
+        <v>0</v>
+      </c>
+      <c r="H1571">
+        <v>0</v>
+      </c>
+      <c r="I1571">
+        <v>0</v>
+      </c>
+      <c r="J1571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1572" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B1572">
+        <v>0</v>
+      </c>
+      <c r="C1572">
+        <v>0</v>
+      </c>
+      <c r="D1572">
+        <v>0</v>
+      </c>
+      <c r="E1572">
+        <v>0</v>
+      </c>
+      <c r="F1572">
+        <v>0</v>
+      </c>
+      <c r="G1572">
+        <v>0</v>
+      </c>
+      <c r="H1572">
+        <v>0</v>
+      </c>
+      <c r="I1572">
+        <v>0</v>
+      </c>
+      <c r="J1572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1573" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B1573">
+        <v>0</v>
+      </c>
+      <c r="C1573">
+        <v>0</v>
+      </c>
+      <c r="D1573">
+        <v>0</v>
+      </c>
+      <c r="E1573">
+        <v>0</v>
+      </c>
+      <c r="F1573">
+        <v>0</v>
+      </c>
+      <c r="G1573">
+        <v>0</v>
+      </c>
+      <c r="H1573">
+        <v>0</v>
+      </c>
+      <c r="I1573">
+        <v>0</v>
+      </c>
+      <c r="J1573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1574" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B1574">
+        <v>0</v>
+      </c>
+      <c r="C1574">
+        <v>0</v>
+      </c>
+      <c r="D1574">
+        <v>0</v>
+      </c>
+      <c r="E1574">
+        <v>0</v>
+      </c>
+      <c r="F1574">
+        <v>0</v>
+      </c>
+      <c r="G1574">
+        <v>0</v>
+      </c>
+      <c r="H1574">
+        <v>0</v>
+      </c>
+      <c r="I1574">
+        <v>0</v>
+      </c>
+      <c r="J1574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1575" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B1575">
+        <v>0</v>
+      </c>
+      <c r="C1575">
+        <v>0</v>
+      </c>
+      <c r="D1575">
+        <v>0</v>
+      </c>
+      <c r="E1575">
+        <v>0</v>
+      </c>
+      <c r="F1575">
+        <v>0</v>
+      </c>
+      <c r="G1575">
+        <v>1</v>
+      </c>
+      <c r="H1575">
+        <v>0</v>
+      </c>
+      <c r="I1575">
+        <v>0</v>
+      </c>
+      <c r="J1575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1576" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B1576">
+        <v>0</v>
+      </c>
+      <c r="C1576">
+        <v>0</v>
+      </c>
+      <c r="D1576">
+        <v>0</v>
+      </c>
+      <c r="E1576">
+        <v>0</v>
+      </c>
+      <c r="F1576">
+        <v>0</v>
+      </c>
+      <c r="G1576">
+        <v>0</v>
+      </c>
+      <c r="H1576">
+        <v>0</v>
+      </c>
+      <c r="I1576">
+        <v>0</v>
+      </c>
+      <c r="J1576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1577" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B1577">
+        <v>0</v>
+      </c>
+      <c r="C1577">
+        <v>0</v>
+      </c>
+      <c r="D1577">
+        <v>0</v>
+      </c>
+      <c r="E1577">
+        <v>0</v>
+      </c>
+      <c r="F1577">
+        <v>0</v>
+      </c>
+      <c r="G1577">
+        <v>0</v>
+      </c>
+      <c r="H1577">
+        <v>0</v>
+      </c>
+      <c r="I1577">
+        <v>0</v>
+      </c>
+      <c r="J1577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1578" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B1578">
+        <v>0</v>
+      </c>
+      <c r="C1578">
+        <v>0</v>
+      </c>
+      <c r="D1578">
+        <v>0</v>
+      </c>
+      <c r="E1578">
+        <v>0</v>
+      </c>
+      <c r="F1578">
+        <v>0</v>
+      </c>
+      <c r="G1578">
+        <v>0</v>
+      </c>
+      <c r="H1578">
+        <v>0</v>
+      </c>
+      <c r="I1578">
+        <v>0</v>
+      </c>
+      <c r="J1578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1579" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B1579">
+        <v>0</v>
+      </c>
+      <c r="C1579">
+        <v>0</v>
+      </c>
+      <c r="D1579">
+        <v>0</v>
+      </c>
+      <c r="E1579">
+        <v>0</v>
+      </c>
+      <c r="F1579">
+        <v>0</v>
+      </c>
+      <c r="G1579">
+        <v>1</v>
+      </c>
+      <c r="H1579">
+        <v>0</v>
+      </c>
+      <c r="I1579">
+        <v>0</v>
+      </c>
+      <c r="J1579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1580" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B1580">
+        <v>0</v>
+      </c>
+      <c r="C1580">
+        <v>0</v>
+      </c>
+      <c r="D1580">
+        <v>0</v>
+      </c>
+      <c r="E1580">
+        <v>0</v>
+      </c>
+      <c r="F1580">
+        <v>0</v>
+      </c>
+      <c r="G1580">
+        <v>0</v>
+      </c>
+      <c r="H1580">
+        <v>0</v>
+      </c>
+      <c r="I1580">
+        <v>0</v>
+      </c>
+      <c r="J1580">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
